--- a/Tools/GameDataTool/bin/Excel/test.xlsx
+++ b/Tools/GameDataTool/bin/Excel/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Nullspace\GameDataDefine\bin\Debug\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Nullspace\Tools\GameDataTool\bin\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20415" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20415" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProperty" sheetId="1" r:id="rId1"/>
@@ -1241,11 +1241,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4023,7 +4023,7 @@
         <v>73012</v>
       </c>
       <c r="G19" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -6209,11 +6209,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7053,7 +7053,7 @@
         <v>73010</v>
       </c>
       <c r="F13" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>73011</v>
       </c>
       <c r="F14" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>73012</v>
       </c>
       <c r="F15" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>

--- a/Tools/GameDataTool/bin/Excel/test.xlsx
+++ b/Tools/GameDataTool/bin/Excel/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Nullspace\Tools\GameDataTool\bin\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnityWorkspace\Nullspace\Tools\GameDataTool\bin\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED2757F-6954-49D5-AE22-4C692FF5F6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20415" windowHeight="7995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProperty" sheetId="1" r:id="rId1"/>
@@ -750,18 +751,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manager:two_map,keys:Index#ModelId,delay:true</t>
+    <t>Map&lt;Index,ModelId&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manager:list</t>
+    <t>List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1028,6 +1029,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1063,6 +1081,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1238,14 +1273,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6193,10 +6228,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:D4 F4:K4 M4:XFD4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:D4 F4:K4 M4:XFD4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"cs,s,c,skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"uint,int,string,float,byte,short,ushort,word,char,vector3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6206,14 +6241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7252,10 +7287,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:XFD4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:XFD4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"cs,s,c,skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"uint,int,string,float,byte,short,ushort,word,char,vector3"</formula1>
     </dataValidation>
   </dataValidations>
